--- a/homebased_gfx_check.xlsx
+++ b/homebased_gfx_check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zacknewman/Documents/ZackNewsMan, LLC/New Zealand pubs/BusinessDesk/Education/Childcare/Childcare - ECE - data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFE0F05-4E8C-3742-A5CA-15F68C47F790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7C4DF6-5BB8-F543-AE33-FCB43E11AD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="340" windowWidth="38400" windowHeight="19240" activeTab="1" xr2:uid="{7A4DED8B-9C93-C14B-A5BB-76E5B4DFDEED}"/>
+    <workbookView xWindow="660" yWindow="2840" windowWidth="28700" windowHeight="16800" activeTab="1" xr2:uid="{7A4DED8B-9C93-C14B-A5BB-76E5B4DFDEED}"/>
   </bookViews>
   <sheets>
     <sheet name="by licensed places" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="39">
   <si>
     <t>Owner name</t>
   </si>
@@ -139,13 +139,31 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>No - but many locations are free kindergarten so remove</t>
+  </si>
+  <si>
+    <t>About Kids Homebase Limited is allegedly a home-based service, but I think there are are a number of centres so it is not homebased</t>
+  </si>
+  <si>
+    <t>Community-based care so remove</t>
+  </si>
+  <si>
+    <t>Sort of</t>
+  </si>
+  <si>
+    <t>Rock my baby has more homebase services than daycares so best to remove it</t>
+  </si>
+  <si>
+    <t>Te Pūkenga's centres are community-based so shouldn't be on the list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,8 +171,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +196,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -186,11 +215,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7D1547-8697-7D43-87EE-894230296894}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -605,7 +638,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6">
@@ -618,7 +651,7 @@
         <v>2047</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -791,8 +824,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B17">
@@ -805,10 +838,13 @@
         <v>320</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -825,7 +861,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -842,7 +878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -859,24 +895,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>9</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>570</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>442</v>
       </c>
-      <c r="E21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -893,7 +932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -910,24 +949,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="7">
         <v>10</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="7">
         <v>551</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="7">
         <v>602</v>
       </c>
-      <c r="E24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -944,7 +983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -961,7 +1000,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -986,11 +1025,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DE3DB1-58FE-EC41-BB6F-BAE4D7F2D2DE}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1084,7 +1123,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6">
@@ -1097,7 +1136,7 @@
         <v>2047</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1270,7 +1309,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1287,8 +1326,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B18">
@@ -1303,9 +1342,12 @@
       <c r="E18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="F18" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B19">
@@ -1320,8 +1362,11 @@
       <c r="E19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1338,7 +1383,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
